--- a/data/christoph/Liste Standarts_Beziehungen.xlsx
+++ b/data/christoph/Liste Standarts_Beziehungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Bezeichnung</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>reisend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>verfasst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>verweisend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -467,11 +475,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/christoph/Liste Standarts_Beziehungen.xlsx
+++ b/data/christoph/Liste Standarts_Beziehungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bezeichnung</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>verweisend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dokumentierend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>behandelnd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beschreibend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repräsentierend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -483,6 +499,26 @@
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/christoph/Liste Standarts_Beziehungen.xlsx
+++ b/data/christoph/Liste Standarts_Beziehungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bezeichnung</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>repräsentierend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>betreffend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -519,6 +523,11 @@
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/christoph/Liste Standarts_Beziehungen.xlsx
+++ b/data/christoph/Liste Standarts_Beziehungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bezeichnung</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>betreffend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kopierend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -530,8 +534,12 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/data/christoph/Liste Standarts_Beziehungen.xlsx
+++ b/data/christoph/Liste Standarts_Beziehungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Bezeichnung</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>kopierend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adressiert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gestaltend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -539,7 +547,18 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/data/christoph/Liste Standarts_Beziehungen.xlsx
+++ b/data/christoph/Liste Standarts_Beziehungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Bezeichnung</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -73,19 +73,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>kopierend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adressiert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gestaltend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addierend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zitierend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zitiert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>betreffend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kopierend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adressiert</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gestaltend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -466,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,85 +494,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
